--- a/dairyclimatemodel2/results/formatted_results_03.06.xlsx
+++ b/dairyclimatemodel2/results/formatted_results_03.06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\smallholder_dairy_ghg_model\smallholder_dairy_ghg_model\dairyclimatemodel\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A273125-026F-459C-8F0E-0BF7B2B7CB78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{14F69067-144F-471A-9126-0609B27ACADC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="income" sheetId="2" r:id="rId4"/>
     <sheet name="herd" sheetId="3" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
@@ -71,9 +74,6 @@
     <t>Manure N2O (leach)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Manure N2O (vol) </t>
-  </si>
-  <si>
     <t>Manure N2O (direct)</t>
   </si>
   <si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure N2O (vol) </t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -293,10 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -353,23 +353,13 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.9802341811209002E-2"/>
-          <c:y val="4.1576024434419732E-2"/>
-          <c:w val="0.88362109378103726"/>
-          <c:h val="0.79173473693852248"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -386,36 +376,88 @@
             <a:solidFill>
               <a:srgbClr val="C00000"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>greenhouse_gases!$B$1:$I$1</c:f>
+              <c:f>[1]emissions_summary_new!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>HH 1-- Scen 1</c:v>
+                  <c:v>MRH Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HH 2-- Scen 1</c:v>
+                  <c:v>MRH Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>HH 1 -- Scen 2</c:v>
+                  <c:v>MRH  Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HH 2 -- Scen 2</c:v>
+                  <c:v>MRH  Scen 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HH 1-- Scen 3</c:v>
+                  <c:v>MRT  Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HH 2-- Scen 3</c:v>
+                  <c:v>MRT  Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HH 1 -- Scen 4</c:v>
+                  <c:v>MRT  Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>HH 2 -- Scen 4</c:v>
+                  <c:v>MRT Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MRA  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MRA Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MRA Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MRA Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LGH  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LGH  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LGH  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LGH  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LGT  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LGT  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LGT  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>LGT  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>LGA Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>LGA  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>LGA  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>LGA  Scen 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -427,10 +469,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.8301717450444712</c:v>
+                  <c:v>1.2645905870488916</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3317816014662649</c:v>
+                  <c:v>1.0502872168896247</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.6309677133666423</c:v>
@@ -455,12 +497,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-58AF-410A-834D-A3475C992902}"/>
+              <c16:uniqueId val="{00000000-1A1D-43C0-8762-9759129ECBCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -475,38 +517,90 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="CC3300"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>greenhouse_gases!$B$1:$I$1</c:f>
+              <c:f>[1]emissions_summary_new!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>HH 1-- Scen 1</c:v>
+                  <c:v>MRH Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HH 2-- Scen 1</c:v>
+                  <c:v>MRH Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>HH 1 -- Scen 2</c:v>
+                  <c:v>MRH  Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HH 2 -- Scen 2</c:v>
+                  <c:v>MRH  Scen 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HH 1-- Scen 3</c:v>
+                  <c:v>MRT  Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HH 2-- Scen 3</c:v>
+                  <c:v>MRT  Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HH 1 -- Scen 4</c:v>
+                  <c:v>MRT  Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>HH 2 -- Scen 4</c:v>
+                  <c:v>MRT Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MRA  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MRA Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MRA Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MRA Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LGH  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LGH  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LGH  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LGH  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LGT  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LGT  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LGT  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>LGT  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>LGA Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>LGA  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>LGA  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>LGA  Scen 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -518,10 +612,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.93357475678555657</c:v>
+                  <c:v>0.44733661676225206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70454554022408677</c:v>
+                  <c:v>0.41264398513171135</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.83968891677575619</c:v>
@@ -546,20 +640,354 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-58AF-410A-834D-A3475C992902}"/>
+              <c16:uniqueId val="{00000001-1A1D-43C0-8762-9759129ECBCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>greenhouse_gases!$A$8</c:f>
+              <c:f>[1]emissions_summary_new!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manure nitrous oxide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]emissions_summary_new!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>MRH Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MRH Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MRH  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MRH  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MRT  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MRT  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MRT  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MRT Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MRA  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MRA Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MRA Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MRA Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LGH  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LGH  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LGH  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LGH  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LGT  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LGT  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LGT  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>LGT  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>LGA Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>LGA  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>LGA  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>LGA  Scen 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]emissions_summary_new!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.1252932984993499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04366634485782E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9681821230128502E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.86126870547881E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.53934382969918E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4706440763983199E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.43971892571592E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.35025848440591E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2245868829711898E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1473976256687601E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.08494044509311E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9832913772247902E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0060764256453398E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9092066087440501E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8024499131994599E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.67718137095316E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.13188010384389E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.01866214967392E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8919661425447799E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7542002658764499E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1718681659542001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0579585537398401E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.92893519636964E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7908333028358901E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A1D-43C0-8762-9759129ECBCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>greenhouse_gases!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Soil N2O </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]emissions_summary_new!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>MRH Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MRH Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MRH  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MRH  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MRT  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MRT  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MRT  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MRT Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MRA  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MRA Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MRA Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MRA Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LGH  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LGH  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LGH  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LGH  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LGT  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LGT  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LGT  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>LGT  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>LGA Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>LGA  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>LGA  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>LGA  Scen 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>greenhouse_gases!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.9175967421063174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39765522469003634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13577567430451196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12169427172132412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14320904858377323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14924370976787441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15685684010167808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1A1D-43C0-8762-9759129ECBCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>greenhouse_gases!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cropland conversion (CO2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,135 +998,297 @@
                 <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>greenhouse_gases!$B$1:$I$1</c:f>
+              <c:f>[1]emissions_summary_new!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>HH 1-- Scen 1</c:v>
+                  <c:v>MRH Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HH 2-- Scen 1</c:v>
+                  <c:v>MRH Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>HH 1 -- Scen 2</c:v>
+                  <c:v>MRH  Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HH 2 -- Scen 2</c:v>
+                  <c:v>MRH  Scen 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HH 1-- Scen 3</c:v>
+                  <c:v>MRT  Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HH 2-- Scen 3</c:v>
+                  <c:v>MRT  Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HH 1 -- Scen 4</c:v>
+                  <c:v>MRT  Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>HH 2 -- Scen 4</c:v>
+                  <c:v>MRT Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MRA  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MRA Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MRA Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MRA Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LGH  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LGH  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LGH  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LGH  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LGT  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LGT  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LGT  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>LGT  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>LGA Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>LGA  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>LGA  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>LGA  Scen 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>greenhouse_gases!$B$8:$I$8</c:f>
+              <c:f>greenhouse_gases!$B$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.14919771565027598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79287349317001343</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13577567430451196</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12169427172132412</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14320904858377323</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14924370976787441</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15685684010167808</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-58AF-410A-834D-A3475C992902}"/>
+              <c16:uniqueId val="{00000004-1A1D-43C0-8762-9759129ECBCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>greenhouse_gases!$A$7</c:f>
+              <c:f>[1]emissions_summary_new!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fossil fuel CO2</c:v>
+                  <c:v>Land use change -- biomass</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]emissions_summary_new!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>MRH Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MRH Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MRH  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MRH  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MRT  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MRT  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MRT  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MRT Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MRA  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MRA Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MRA Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MRA Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LGH  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LGH  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LGH  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LGH  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LGT  Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LGT  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LGT  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>LGT  Scen 4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>LGA Scen 1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>LGA  Scen 2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>LGA  Scen 3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>LGA  Scen 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>greenhouse_gases!$B$7:$I$7</c:f>
+              <c:f>[1]emissions_summary_new!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2.5302485735046433E-2</c:v>
+                  <c:v>0.77821459274268101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4612845766508346E-4</c:v>
+                  <c:v>0.755175055882776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.620930978153576E-2</c:v>
+                  <c:v>0.73841584876621402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.70991022850475105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4895893858729481E-2</c:v>
+                  <c:v>0.85277096059777702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8444863250097428E-2</c:v>
+                  <c:v>0.83344167063375096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7176714145357937E-2</c:v>
+                  <c:v>0.82953233782882196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2873007249982334E-2</c:v>
+                  <c:v>0.80670826643768501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80233215851991302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78033323825322298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76753355026282799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74058430675994502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87184688936377996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84344464410188602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81755299209286203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78212436009744901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94082337378371805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.912673974986973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88198265837251599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84380513482380404</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94658194378940697</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91860418449878201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88817295074249103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85023792755615801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-58AF-410A-834D-A3475C992902}"/>
+              <c16:uniqueId val="{00000005-1A1D-43C0-8762-9759129ECBCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -710,83 +1300,229 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="216"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="228137472"/>
-        <c:axId val="152066240"/>
+        <c:axId val="144985600"/>
+        <c:axId val="177990464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228137472"/>
+        <c:axId val="144985600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="6350"/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="152066240"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177990464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152066240"/>
+        <c:axId val="177990464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Greenhouse  gas emissions intensity (kg CO2eq/kg FPCM)</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Greenhouse</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> gas emissions intensities (kg CO2eq/ kg FPCM)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6392601515541186E-2"/>
+              <c:y val="0.12771366449239002"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="6350">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="228137472"/>
-        <c:crossesAt val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144985600"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.2"/>
-        <c:minorUnit val="0.1"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -799,27 +1535,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B6EED7-31CD-4A6C-98C8-7E5ABBCEB520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -834,6 +1572,315 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="raw_emissions_old"/>
+      <sheetName val="emissions_summary_new"/>
+      <sheetName val="raw_land_use"/>
+      <sheetName val="Land_Use"/>
+      <sheetName val="e_effic_evaluate"/>
+      <sheetName val="Production"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="raw_emissions_total_L_by_source"/>
+      <sheetName val="emissions_summary_LPS_aggregate"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>Enteric fermentation</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Manure nitrous oxide</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>Land use change -- biomass</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>MRH Scen 1</v>
+          </cell>
+          <cell r="E2">
+            <v>2.1252932984993499E-2</v>
+          </cell>
+          <cell r="H2">
+            <v>0.77821459274268101</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>MRH Scen 2</v>
+          </cell>
+          <cell r="E3">
+            <v>2.04366634485782E-2</v>
+          </cell>
+          <cell r="H3">
+            <v>0.755175055882776</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>MRH  Scen 3</v>
+          </cell>
+          <cell r="E4">
+            <v>1.9681821230128502E-2</v>
+          </cell>
+          <cell r="H4">
+            <v>0.73841584876621402</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>MRH  Scen 4</v>
+          </cell>
+          <cell r="E5">
+            <v>1.86126870547881E-2</v>
+          </cell>
+          <cell r="H5">
+            <v>0.70991022850475105</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>MRT  Scen 1</v>
+          </cell>
+          <cell r="E6">
+            <v>2.53934382969918E-2</v>
+          </cell>
+          <cell r="H6">
+            <v>0.85277096059777702</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>MRT  Scen 2</v>
+          </cell>
+          <cell r="E7">
+            <v>2.4706440763983199E-2</v>
+          </cell>
+          <cell r="H7">
+            <v>0.83344167063375096</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>MRT  Scen 3</v>
+          </cell>
+          <cell r="E8">
+            <v>2.43971892571592E-2</v>
+          </cell>
+          <cell r="H8">
+            <v>0.82953233782882196</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>MRT Scen 4</v>
+          </cell>
+          <cell r="E9">
+            <v>2.35025848440591E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>0.80670826643768501</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>MRA  Scen 1</v>
+          </cell>
+          <cell r="E10">
+            <v>2.2245868829711898E-2</v>
+          </cell>
+          <cell r="H10">
+            <v>0.80233215851991302</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>MRA Scen 2</v>
+          </cell>
+          <cell r="E11">
+            <v>2.1473976256687601E-2</v>
+          </cell>
+          <cell r="H11">
+            <v>0.78033323825322298</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>MRA Scen 3</v>
+          </cell>
+          <cell r="E12">
+            <v>2.08494044509311E-2</v>
+          </cell>
+          <cell r="H12">
+            <v>0.76753355026282799</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>MRA Scen 4</v>
+          </cell>
+          <cell r="E13">
+            <v>1.9832913772247902E-2</v>
+          </cell>
+          <cell r="H13">
+            <v>0.74058430675994502</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>LGH  Scen 1</v>
+          </cell>
+          <cell r="E14">
+            <v>2.0060764256453398E-2</v>
+          </cell>
+          <cell r="H14">
+            <v>0.87184688936377996</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>LGH  Scen 2</v>
+          </cell>
+          <cell r="E15">
+            <v>1.9092066087440501E-2</v>
+          </cell>
+          <cell r="H15">
+            <v>0.84344464410188602</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>LGH  Scen 3</v>
+          </cell>
+          <cell r="E16">
+            <v>1.8024499131994599E-2</v>
+          </cell>
+          <cell r="H16">
+            <v>0.81755299209286203</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>LGH  Scen 4</v>
+          </cell>
+          <cell r="E17">
+            <v>1.67718137095316E-2</v>
+          </cell>
+          <cell r="H17">
+            <v>0.78212436009744901</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>LGT  Scen 1</v>
+          </cell>
+          <cell r="E18">
+            <v>2.13188010384389E-2</v>
+          </cell>
+          <cell r="H18">
+            <v>0.94082337378371805</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>LGT  Scen 2</v>
+          </cell>
+          <cell r="E19">
+            <v>2.01866214967392E-2</v>
+          </cell>
+          <cell r="H19">
+            <v>0.912673974986973</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>LGT  Scen 3</v>
+          </cell>
+          <cell r="E20">
+            <v>1.8919661425447799E-2</v>
+          </cell>
+          <cell r="H20">
+            <v>0.88198265837251599</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>LGT  Scen 4</v>
+          </cell>
+          <cell r="E21">
+            <v>1.7542002658764499E-2</v>
+          </cell>
+          <cell r="H21">
+            <v>0.84380513482380404</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>LGA Scen 1</v>
+          </cell>
+          <cell r="E22">
+            <v>2.1718681659542001E-2</v>
+          </cell>
+          <cell r="H22">
+            <v>0.94658194378940697</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>LGA  Scen 2</v>
+          </cell>
+          <cell r="E23">
+            <v>2.0579585537398401E-2</v>
+          </cell>
+          <cell r="H23">
+            <v>0.91860418449878201</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>LGA  Scen 3</v>
+          </cell>
+          <cell r="E24">
+            <v>1.92893519636964E-2</v>
+          </cell>
+          <cell r="H24">
+            <v>0.88817295074249103</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>LGA  Scen 4</v>
+          </cell>
+          <cell r="E25">
+            <v>1.7908333028358901E-2</v>
+          </cell>
+          <cell r="H25">
+            <v>0.85023792755615801</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1099,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,41 +2163,41 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="44">
-        <v>1.8301717450444712</v>
-      </c>
-      <c r="C2" s="49">
-        <v>1.3317816014662649</v>
-      </c>
-      <c r="D2" s="56">
+      <c r="B2" s="59">
+        <v>1.2645905870488916</v>
+      </c>
+      <c r="C2" s="59">
+        <v>1.0502872168896247</v>
+      </c>
+      <c r="D2" s="53">
         <v>1.6309677133666423</v>
       </c>
       <c r="E2" s="37">
@@ -1174,13 +2221,13 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="44">
-        <v>0.93357475678555657</v>
-      </c>
-      <c r="C3" s="49">
-        <v>0.70454554022408677</v>
-      </c>
-      <c r="D3" s="56">
+      <c r="B3" s="59">
+        <v>0.44733661676225206</v>
+      </c>
+      <c r="C3" s="59">
+        <v>0.41264398513171135</v>
+      </c>
+      <c r="D3" s="53">
         <v>0.83968891677575619</v>
       </c>
       <c r="E3" s="38">
@@ -1202,94 +2249,111 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="59">
+        <v>-0.25903668837570604</v>
+      </c>
+      <c r="C4" s="59">
+        <v>2.4582354588485723E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="59">
+        <v>-9.7138758140889753E-3</v>
+      </c>
+      <c r="C5" s="59">
+        <v>9.2183829706821412E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="59">
+        <v>-1.29518344187853E-2</v>
+      </c>
+      <c r="C6" s="59">
+        <v>1.229117729424286E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="45">
-        <v>2.5302485735046433E-2</v>
-      </c>
-      <c r="C7" s="50">
-        <v>5.4612845766508346E-4</v>
-      </c>
-      <c r="D7" s="57">
-        <v>2.620930978153576E-2</v>
-      </c>
-      <c r="E7" s="40">
-        <v>2E-3</v>
-      </c>
-      <c r="F7" s="16">
-        <v>3.4895893858729481E-2</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1.8444863250097428E-2</v>
-      </c>
-      <c r="H7" s="28">
-        <v>1.7176714145357937E-2</v>
-      </c>
-      <c r="I7" s="28">
-        <v>1.2873007249982334E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="59">
+        <v>2.9175967421063174</v>
+      </c>
+      <c r="C7" s="59">
+        <v>0.39765522469003634</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0.13577567430451196</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.85</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.12169427172132412</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.14320904858377323</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0.14924370976787441</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.15685684010167808</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="45">
-        <v>0.14919771565027598</v>
-      </c>
-      <c r="C8" s="50">
-        <v>0.79287349317001343</v>
-      </c>
-      <c r="D8" s="57">
-        <v>0.13577567430451196</v>
-      </c>
-      <c r="E8" s="39">
-        <v>0.85</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.12169427172132412</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0.14320904858377323</v>
-      </c>
-      <c r="H8" s="27">
-        <v>0.14924370976787441</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0.15685684010167808</v>
-      </c>
-      <c r="J8" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="59">
+        <v>7.2339774278977629</v>
+      </c>
+      <c r="C8" s="47">
+        <v>5.4612845766508346E-4</v>
+      </c>
+      <c r="D8" s="54">
+        <v>2.620930978153576E-2</v>
+      </c>
+      <c r="E8" s="40">
+        <v>2E-3</v>
+      </c>
+      <c r="F8" s="16">
+        <v>3.4895893858729481E-2</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1.8444863250097428E-2</v>
+      </c>
+      <c r="H8" s="28">
+        <v>1.7176714145357937E-2</v>
+      </c>
+      <c r="I8" s="28">
+        <v>1.2873007249982334E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="11"/>
+        <v>16</v>
+      </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="I9" s="7"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E10" s="11"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -1308,6 +2372,9 @@
     </row>
     <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1330,41 +2397,41 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="44">
         <v>3.6012935323479938</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="49">
         <v>5.9343548142775937</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="56">
         <v>3.2083188589267166</v>
       </c>
       <c r="E2" s="41"/>
@@ -1385,13 +2452,13 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="44">
         <v>2.2627789899713155</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="49">
         <v>2.0091394262476494</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="56">
         <v>1.9545244911629407</v>
       </c>
       <c r="E3" s="42"/>
@@ -1412,13 +2479,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="44">
         <v>1.131453982271297</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="49">
         <v>1.4047263422045435</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="56">
         <v>0.99345564697832267</v>
       </c>
       <c r="E4" s="43"/>
@@ -1439,13 +2506,13 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="44">
         <v>1.1313250077000185</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="49">
         <v>0.60441308404310568</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="56">
         <v>0.96106884418461802</v>
       </c>
       <c r="E5" s="43"/>
@@ -1469,10 +2536,10 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="49">
         <v>0.81229445829667268</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="56">
         <v>1.5557510731587592</v>
       </c>
       <c r="E6" s="43"/>
@@ -1493,10 +2560,10 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="44">
         <v>1.8207983931591958</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="49">
         <v>3.2839724959278471</v>
       </c>
       <c r="D7">
@@ -1517,19 +2584,19 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="45"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="45"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="45"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="45"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="45"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1568,44 +2635,44 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="46">
         <v>1581.5373495241231</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="48">
         <v>1316.0661081667665</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="57">
         <v>1550.2821682892015</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="59">
         <v>9257.5807429304168</v>
       </c>
       <c r="F2" s="24">
@@ -1623,18 +2690,18 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="48">
+        <v>25</v>
+      </c>
+      <c r="B3" s="46">
         <v>434.65329150271015</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="48">
         <v>877.78609274215034</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="57">
         <v>426.35188047778723</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="59">
         <v>217.39754618849622</v>
       </c>
       <c r="F3" s="24">
@@ -1671,28 +2738,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1740,7 +2807,7 @@
       <c r="C4" s="2">
         <v>3137284.7832907401</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="58">
         <v>2761635.708137807</v>
       </c>
       <c r="E4" s="2"/>
@@ -1843,42 +2910,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="N1" s="52" t="s">
         <v>32</v>
-      </c>
-      <c r="N1" s="55" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>2.42</v>
@@ -1901,19 +2968,19 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="L2" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="55">
+      <c r="L2" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="52">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N2" s="55">
+      <c r="N2" s="52">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>2.19</v>
@@ -1921,7 +2988,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="55">
         <v>2.153169678179446</v>
       </c>
       <c r="F3">
@@ -1936,19 +3003,19 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="L3" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="55">
+      <c r="L3" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="52">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N3" s="55">
+      <c r="N3" s="52">
         <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1971,24 +3038,24 @@
       <c r="I4">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L4" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="55">
+      <c r="L4" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="52">
         <v>1.4</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="52">
         <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="50">
         <v>1.2187735414199781</v>
       </c>
       <c r="D5">
@@ -2009,18 +3076,18 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D6" s="58"/>
+      <c r="D6" s="55"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D7" s="58"/>
+      <c r="D7" s="55"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D8" s="58"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D9" s="58"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="1"/>
@@ -2029,74 +3096,74 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D11" s="58"/>
+      <c r="D11" s="55"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="D12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="E12" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="G12" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="52" t="s">
         <v>24</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>25</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="55">
+      <c r="A13" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="52">
         <f>2.42*0.5</f>
         <v>1.21</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="52">
         <v>0</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="52">
         <f>2.42*2.4</f>
         <v>5.8079999999999998</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="52">
         <v>0</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="52">
         <f>2.42*2.48</f>
         <v>6.0015999999999998</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="52">
         <v>0</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="52">
         <f>2.42*2.46</f>
         <v>5.9531999999999998</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="52">
         <v>0</v>
       </c>
       <c r="J13" s="1"/>
@@ -2104,35 +3171,35 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="54">
+      <c r="A14" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="51">
         <f>2.19*1.4</f>
         <v>3.0659999999999998</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="51">
         <v>0</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="52">
         <f>1.4*2.19</f>
         <v>3.0659999999999998</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="52">
         <v>0</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="52">
         <f>1.4*2.3</f>
         <v>3.2199999999999998</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="52">
         <v>0</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="52">
         <f>1.4*2.32624269238496</f>
         <v>3.2567397693389442</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="52">
         <v>0</v>
       </c>
       <c r="J14" s="1"/>
@@ -2140,35 +3207,35 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="55">
+      <c r="A15" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="52">
         <v>0</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="52">
         <f>0.6*1.83</f>
         <v>1.0980000000000001</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="52">
         <v>0</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="52">
         <f>0.6*2.06</f>
         <v>1.236</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="52">
         <v>0</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="52">
         <f>0.6*2.5</f>
         <v>1.5</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="51">
         <f>0.6*0.1</f>
         <v>0.06</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="52">
         <f>0.6*2.55</f>
         <v>1.5299999999999998</v>
       </c>
@@ -2176,35 +3243,35 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="55">
+      <c r="A16" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="52">
         <v>0</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="52">
         <f>1.8*1.21877354141998</f>
         <v>2.1937923745559642</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="52">
         <v>0</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="51">
         <f>1.8*1.2</f>
         <v>2.16</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="52">
         <v>0</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="52">
         <f>1.8*2.38</f>
         <v>4.2839999999999998</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="51">
         <f>1.8*0.57</f>
         <v>1.026</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="52">
         <f>1.8*2.39</f>
         <v>4.3020000000000005</v>
       </c>
